--- a/PredictedAgesFromModels.xlsx
+++ b/PredictedAgesFromModels.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F1E55B-3C3B-40B3-A4AF-667989022D84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA5D86C-6819-487F-8167-32CDDBB6252D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="4710" windowWidth="21600" windowHeight="11505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cortical" sheetId="1" r:id="rId1"/>
     <sheet name="subcortical" sheetId="2" r:id="rId2"/>
     <sheet name="DTI" sheetId="3" r:id="rId3"/>
     <sheet name="Combined" sheetId="4" r:id="rId4"/>
+    <sheet name="BodyAge" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="231">
   <si>
     <t>Patient ID</t>
   </si>
@@ -690,6 +691,33 @@
   <si>
     <t>Predicted Age - Ridge(R^2 = 0.77)</t>
   </si>
+  <si>
+    <t>PatientID</t>
+  </si>
+  <si>
+    <t>TrueAge</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Predicted Age - SVM RBF Kernel(R^2 = 0.72)</t>
+  </si>
+  <si>
+    <t>Predicted Age - Linear Regression (R^2=0.45)</t>
+  </si>
+  <si>
+    <t>Predicted Age - BayesianRidge(R^2 = 0.45)</t>
+  </si>
+  <si>
+    <t>Predicted Age - Ridge(R^2 = 0.44)</t>
+  </si>
+  <si>
+    <t>Predicted Age - ElasticNet(R^2 = 0.44)</t>
+  </si>
+  <si>
+    <t>Predicted Age - ElasticNet(R^2 = 0.46)</t>
+  </si>
 </sst>
 </file>
 
@@ -1025,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13715,7 +13743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4037803-5968-4647-B96A-80FF6C5D392A}">
   <dimension ref="A1:J198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -26398,4 +26426,5769 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608572B4-71F3-4FAA-9C03-6A1E4A7F70A9}">
+  <dimension ref="A1:I198"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I198"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>47.662842766235499</v>
+      </c>
+      <c r="E2">
+        <v>46.899739087674497</v>
+      </c>
+      <c r="F2">
+        <v>46.743381770783301</v>
+      </c>
+      <c r="G2">
+        <v>45.739362347954</v>
+      </c>
+      <c r="H2">
+        <v>45.721735631976102</v>
+      </c>
+      <c r="I2">
+        <v>47.8431003871275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>37.302885367373399</v>
+      </c>
+      <c r="E3">
+        <v>37.362792963139697</v>
+      </c>
+      <c r="F3">
+        <v>37.297604947403698</v>
+      </c>
+      <c r="G3">
+        <v>37.4439140597094</v>
+      </c>
+      <c r="H3">
+        <v>37.671951675122997</v>
+      </c>
+      <c r="I3">
+        <v>37.370706010031398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>41.723264447335502</v>
+      </c>
+      <c r="E4">
+        <v>46.013128426623901</v>
+      </c>
+      <c r="F4">
+        <v>40.925867635387696</v>
+      </c>
+      <c r="G4">
+        <v>40.522543225578097</v>
+      </c>
+      <c r="H4">
+        <v>40.257694596526399</v>
+      </c>
+      <c r="I4">
+        <v>41.518509537189701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>44.551350325463403</v>
+      </c>
+      <c r="E5">
+        <v>45.852252758830097</v>
+      </c>
+      <c r="F5">
+        <v>44.050980749768897</v>
+      </c>
+      <c r="G5">
+        <v>43.666038980768299</v>
+      </c>
+      <c r="H5">
+        <v>43.584542020267399</v>
+      </c>
+      <c r="I5">
+        <v>44.664699428105003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>32.064928093952297</v>
+      </c>
+      <c r="E6">
+        <v>34.099727708225203</v>
+      </c>
+      <c r="F6">
+        <v>31.904753758239199</v>
+      </c>
+      <c r="G6">
+        <v>32.210672695611102</v>
+      </c>
+      <c r="H6">
+        <v>32.072338353325598</v>
+      </c>
+      <c r="I6">
+        <v>31.700178213239901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <v>33.850816492461597</v>
+      </c>
+      <c r="E7">
+        <v>36.696424588666098</v>
+      </c>
+      <c r="F7">
+        <v>34.172926011601703</v>
+      </c>
+      <c r="G7">
+        <v>34.386006215605597</v>
+      </c>
+      <c r="H7">
+        <v>34.531123228557902</v>
+      </c>
+      <c r="I7">
+        <v>34.001462450262103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>32.576888483398598</v>
+      </c>
+      <c r="E8">
+        <v>38.8997974239673</v>
+      </c>
+      <c r="F8">
+        <v>33.694698455930002</v>
+      </c>
+      <c r="G8">
+        <v>34.283020592609802</v>
+      </c>
+      <c r="H8">
+        <v>34.125531594217797</v>
+      </c>
+      <c r="I8">
+        <v>32.861737926622801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>38.1775898725273</v>
+      </c>
+      <c r="E9">
+        <v>43.501350350875001</v>
+      </c>
+      <c r="F9">
+        <v>37.963504777180702</v>
+      </c>
+      <c r="G9">
+        <v>37.8729656186363</v>
+      </c>
+      <c r="H9">
+        <v>37.831683224655599</v>
+      </c>
+      <c r="I9">
+        <v>37.984646063427903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>24.280379023487001</v>
+      </c>
+      <c r="E10">
+        <v>23.796332727983302</v>
+      </c>
+      <c r="F10">
+        <v>25.2339033074235</v>
+      </c>
+      <c r="G10">
+        <v>26.161847143769901</v>
+      </c>
+      <c r="H10">
+        <v>26.396147453701701</v>
+      </c>
+      <c r="I10">
+        <v>24.526936632589099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>36.717465028900698</v>
+      </c>
+      <c r="E11">
+        <v>34.078702930416497</v>
+      </c>
+      <c r="F11">
+        <v>38.431395952169602</v>
+      </c>
+      <c r="G11">
+        <v>39.325234953268399</v>
+      </c>
+      <c r="H11">
+        <v>39.479917635701803</v>
+      </c>
+      <c r="I11">
+        <v>37.297981349818201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>23.012768632347601</v>
+      </c>
+      <c r="E12">
+        <v>22.949135991163299</v>
+      </c>
+      <c r="F12">
+        <v>26.2854197355542</v>
+      </c>
+      <c r="G12">
+        <v>27.932653769187699</v>
+      </c>
+      <c r="H12">
+        <v>27.918299009619499</v>
+      </c>
+      <c r="I12">
+        <v>24.230284732793098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>35.988523580908499</v>
+      </c>
+      <c r="E13">
+        <v>33.854365357027397</v>
+      </c>
+      <c r="F13">
+        <v>36.4617810695445</v>
+      </c>
+      <c r="G13">
+        <v>36.749843985813499</v>
+      </c>
+      <c r="H13">
+        <v>36.3033682095313</v>
+      </c>
+      <c r="I13">
+        <v>35.746236059313098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>42.550551552560897</v>
+      </c>
+      <c r="E14">
+        <v>45.952096394702103</v>
+      </c>
+      <c r="F14">
+        <v>42.241534278720003</v>
+      </c>
+      <c r="G14">
+        <v>42.0332789050412</v>
+      </c>
+      <c r="H14">
+        <v>42.218485828192897</v>
+      </c>
+      <c r="I14">
+        <v>42.5846568847562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>55.667954968666201</v>
+      </c>
+      <c r="E15">
+        <v>53.067695868507698</v>
+      </c>
+      <c r="F15">
+        <v>54.000343755809297</v>
+      </c>
+      <c r="G15">
+        <v>52.727013111344903</v>
+      </c>
+      <c r="H15">
+        <v>52.583651466220303</v>
+      </c>
+      <c r="I15">
+        <v>55.176163260099997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>33.631498477196097</v>
+      </c>
+      <c r="E16">
+        <v>29.8050435477405</v>
+      </c>
+      <c r="F16">
+        <v>33.710262852533099</v>
+      </c>
+      <c r="G16">
+        <v>33.918631127649299</v>
+      </c>
+      <c r="H16">
+        <v>34.130584538481799</v>
+      </c>
+      <c r="I16">
+        <v>33.573111892702201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>40.6256121151646</v>
+      </c>
+      <c r="E17">
+        <v>47.150664137069803</v>
+      </c>
+      <c r="F17">
+        <v>41.550583072536597</v>
+      </c>
+      <c r="G17">
+        <v>42.118994260161898</v>
+      </c>
+      <c r="H17">
+        <v>43.109508806999003</v>
+      </c>
+      <c r="I17">
+        <v>41.287864817267703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>47.189228024546701</v>
+      </c>
+      <c r="E18">
+        <v>50.803316031546899</v>
+      </c>
+      <c r="F18">
+        <v>46.582471158994998</v>
+      </c>
+      <c r="G18">
+        <v>46.042386472371497</v>
+      </c>
+      <c r="H18">
+        <v>46.819471213222201</v>
+      </c>
+      <c r="I18">
+        <v>47.337875458086003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>54.6276275103044</v>
+      </c>
+      <c r="E19">
+        <v>52.900353030895097</v>
+      </c>
+      <c r="F19">
+        <v>53.7365515296393</v>
+      </c>
+      <c r="G19">
+        <v>52.858544340581098</v>
+      </c>
+      <c r="H19">
+        <v>53.289688094884298</v>
+      </c>
+      <c r="I19">
+        <v>54.6079137190087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>33.540183690698001</v>
+      </c>
+      <c r="E20">
+        <v>25.092042945107998</v>
+      </c>
+      <c r="F20">
+        <v>34.370915154639597</v>
+      </c>
+      <c r="G20">
+        <v>34.928021259877902</v>
+      </c>
+      <c r="H20">
+        <v>34.639893907184799</v>
+      </c>
+      <c r="I20">
+        <v>33.542911841770902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>35.553411363855098</v>
+      </c>
+      <c r="E21">
+        <v>34.899989577645897</v>
+      </c>
+      <c r="F21">
+        <v>36.268360909919402</v>
+      </c>
+      <c r="G21">
+        <v>36.692673933231397</v>
+      </c>
+      <c r="H21">
+        <v>36.588061780397403</v>
+      </c>
+      <c r="I21">
+        <v>35.540849367764302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>28.882990502999299</v>
+      </c>
+      <c r="E22">
+        <v>21.0156246438642</v>
+      </c>
+      <c r="F22">
+        <v>30.266425428345102</v>
+      </c>
+      <c r="G22">
+        <v>31.083917747323699</v>
+      </c>
+      <c r="H22">
+        <v>31.198470615047999</v>
+      </c>
+      <c r="I22">
+        <v>29.716355800594599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>36.649484896984397</v>
+      </c>
+      <c r="E23">
+        <v>33.100465629717398</v>
+      </c>
+      <c r="F23">
+        <v>36.692801874663502</v>
+      </c>
+      <c r="G23">
+        <v>36.850427209769599</v>
+      </c>
+      <c r="H23">
+        <v>36.721510120476999</v>
+      </c>
+      <c r="I23">
+        <v>36.313980920049197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>51.850357506891903</v>
+      </c>
+      <c r="E24">
+        <v>57.059241247303099</v>
+      </c>
+      <c r="F24">
+        <v>50.834039681760302</v>
+      </c>
+      <c r="G24">
+        <v>50.020490768255698</v>
+      </c>
+      <c r="H24">
+        <v>49.9413043403204</v>
+      </c>
+      <c r="I24">
+        <v>51.5061573231418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>48.5252464864529</v>
+      </c>
+      <c r="E25">
+        <v>43.099715525974801</v>
+      </c>
+      <c r="F25">
+        <v>48.341764762632202</v>
+      </c>
+      <c r="G25">
+        <v>47.999328954376303</v>
+      </c>
+      <c r="H25">
+        <v>48.092437134486602</v>
+      </c>
+      <c r="I25">
+        <v>49.240674697099202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>41.981966255907899</v>
+      </c>
+      <c r="E26">
+        <v>42.100231765338101</v>
+      </c>
+      <c r="F26">
+        <v>41.917686484131501</v>
+      </c>
+      <c r="G26">
+        <v>41.910166614852102</v>
+      </c>
+      <c r="H26">
+        <v>41.738118610687501</v>
+      </c>
+      <c r="I26">
+        <v>41.973498051122903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>48</v>
+      </c>
+      <c r="D27">
+        <v>36.786950258968197</v>
+      </c>
+      <c r="E27">
+        <v>38.541271350729197</v>
+      </c>
+      <c r="F27">
+        <v>37.083695204980401</v>
+      </c>
+      <c r="G27">
+        <v>37.323491697076797</v>
+      </c>
+      <c r="H27">
+        <v>37.442987617586702</v>
+      </c>
+      <c r="I27">
+        <v>37.057104539369597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>41.734884338957499</v>
+      </c>
+      <c r="E28">
+        <v>33.099739016070203</v>
+      </c>
+      <c r="F28">
+        <v>41.570163893050598</v>
+      </c>
+      <c r="G28">
+        <v>41.2495698371198</v>
+      </c>
+      <c r="H28">
+        <v>41.632229808074499</v>
+      </c>
+      <c r="I28">
+        <v>42.052954257465103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <v>48.628674934591501</v>
+      </c>
+      <c r="E29">
+        <v>54.100048767841201</v>
+      </c>
+      <c r="F29">
+        <v>46.559401218984199</v>
+      </c>
+      <c r="G29">
+        <v>45.496831119699998</v>
+      </c>
+      <c r="H29">
+        <v>45.704337497151897</v>
+      </c>
+      <c r="I29">
+        <v>48.429047179415498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>22.6564431287815</v>
+      </c>
+      <c r="E30">
+        <v>34.515659442264301</v>
+      </c>
+      <c r="F30">
+        <v>24.402849396348099</v>
+      </c>
+      <c r="G30">
+        <v>25.825758632865199</v>
+      </c>
+      <c r="H30">
+        <v>26.033176554317201</v>
+      </c>
+      <c r="I30">
+        <v>23.3450613990207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>31.7546214611084</v>
+      </c>
+      <c r="E31">
+        <v>27.8231923677886</v>
+      </c>
+      <c r="F31">
+        <v>33.336473391801697</v>
+      </c>
+      <c r="G31">
+        <v>34.297521033520397</v>
+      </c>
+      <c r="H31">
+        <v>34.432753237010701</v>
+      </c>
+      <c r="I31">
+        <v>32.097060123232801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>54</v>
+      </c>
+      <c r="D32">
+        <v>55.0886268441323</v>
+      </c>
+      <c r="E32">
+        <v>53.899850517252098</v>
+      </c>
+      <c r="F32">
+        <v>53.741612175779998</v>
+      </c>
+      <c r="G32">
+        <v>52.781849777595099</v>
+      </c>
+      <c r="H32">
+        <v>52.744761547186002</v>
+      </c>
+      <c r="I32">
+        <v>54.685856220982899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>35.348324430889001</v>
+      </c>
+      <c r="E33">
+        <v>33.562399245048603</v>
+      </c>
+      <c r="F33">
+        <v>35.652337177878401</v>
+      </c>
+      <c r="G33">
+        <v>35.987487618213102</v>
+      </c>
+      <c r="H33">
+        <v>35.738654945197503</v>
+      </c>
+      <c r="I33">
+        <v>35.265048027330899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>35.106943828120102</v>
+      </c>
+      <c r="E34">
+        <v>32.232002026673896</v>
+      </c>
+      <c r="F34">
+        <v>34.883429790486502</v>
+      </c>
+      <c r="G34">
+        <v>34.919875464990099</v>
+      </c>
+      <c r="H34">
+        <v>35.069641829277799</v>
+      </c>
+      <c r="I34">
+        <v>35.139233550996799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>54</v>
+      </c>
+      <c r="D35">
+        <v>43.884238716936103</v>
+      </c>
+      <c r="E35">
+        <v>48.2364256847059</v>
+      </c>
+      <c r="F35">
+        <v>42.932103621583302</v>
+      </c>
+      <c r="G35">
+        <v>42.544984834842602</v>
+      </c>
+      <c r="H35">
+        <v>42.828213832054303</v>
+      </c>
+      <c r="I35">
+        <v>43.8611732378426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>43</v>
+      </c>
+      <c r="D36">
+        <v>38.978110963601402</v>
+      </c>
+      <c r="E36">
+        <v>42.900189489151501</v>
+      </c>
+      <c r="F36">
+        <v>39.219942900063003</v>
+      </c>
+      <c r="G36">
+        <v>39.397689694967497</v>
+      </c>
+      <c r="H36">
+        <v>39.864155298541803</v>
+      </c>
+      <c r="I36">
+        <v>39.279666656790603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>36.742128457046903</v>
+      </c>
+      <c r="E37">
+        <v>38.076530933205198</v>
+      </c>
+      <c r="F37">
+        <v>37.060943663797801</v>
+      </c>
+      <c r="G37">
+        <v>37.083961945262999</v>
+      </c>
+      <c r="H37">
+        <v>37.1272093747681</v>
+      </c>
+      <c r="I37">
+        <v>37.176951317837499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>45</v>
+      </c>
+      <c r="D38">
+        <v>39.256302026898297</v>
+      </c>
+      <c r="E38">
+        <v>42.2584014242846</v>
+      </c>
+      <c r="F38">
+        <v>40.0499776995186</v>
+      </c>
+      <c r="G38">
+        <v>40.276080436869101</v>
+      </c>
+      <c r="H38">
+        <v>40.069179814982498</v>
+      </c>
+      <c r="I38">
+        <v>39.500242891955303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>55</v>
+      </c>
+      <c r="D39">
+        <v>48.967219854489599</v>
+      </c>
+      <c r="E39">
+        <v>50.782459271838697</v>
+      </c>
+      <c r="F39">
+        <v>46.821664316647301</v>
+      </c>
+      <c r="G39">
+        <v>45.813752543468603</v>
+      </c>
+      <c r="H39">
+        <v>46.112551895394297</v>
+      </c>
+      <c r="I39">
+        <v>47.930023206070899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>59</v>
+      </c>
+      <c r="D40">
+        <v>38.302178409194397</v>
+      </c>
+      <c r="E40">
+        <v>42.018861437967999</v>
+      </c>
+      <c r="F40">
+        <v>38.982482741438801</v>
+      </c>
+      <c r="G40">
+        <v>39.297001493106301</v>
+      </c>
+      <c r="H40">
+        <v>38.8960591071355</v>
+      </c>
+      <c r="I40">
+        <v>38.698351557216803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <v>37.690889232954298</v>
+      </c>
+      <c r="E41">
+        <v>37.327354962874601</v>
+      </c>
+      <c r="F41">
+        <v>37.737355637901601</v>
+      </c>
+      <c r="G41">
+        <v>37.811267672385</v>
+      </c>
+      <c r="H41">
+        <v>37.956322954210897</v>
+      </c>
+      <c r="I41">
+        <v>37.973547313066298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>29</v>
+      </c>
+      <c r="D42">
+        <v>29.4882093106859</v>
+      </c>
+      <c r="E42">
+        <v>29.100094576180702</v>
+      </c>
+      <c r="F42">
+        <v>29.857086811869699</v>
+      </c>
+      <c r="G42">
+        <v>30.232498540048098</v>
+      </c>
+      <c r="H42">
+        <v>30.262722066162599</v>
+      </c>
+      <c r="I42">
+        <v>29.199499486900301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>53.969019823213202</v>
+      </c>
+      <c r="E43">
+        <v>43.985122470889799</v>
+      </c>
+      <c r="F43">
+        <v>53.177418064847799</v>
+      </c>
+      <c r="G43">
+        <v>52.437041649291601</v>
+      </c>
+      <c r="H43">
+        <v>51.842253521712301</v>
+      </c>
+      <c r="I43">
+        <v>53.650373840809003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>58</v>
+      </c>
+      <c r="D44">
+        <v>37.597488456185097</v>
+      </c>
+      <c r="E44">
+        <v>43.944715530100503</v>
+      </c>
+      <c r="F44">
+        <v>37.911113165488402</v>
+      </c>
+      <c r="G44">
+        <v>38.159020945389202</v>
+      </c>
+      <c r="H44">
+        <v>37.610083330759998</v>
+      </c>
+      <c r="I44">
+        <v>37.191258950507098</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>38.252015296731003</v>
+      </c>
+      <c r="E45">
+        <v>27.100512947894799</v>
+      </c>
+      <c r="F45">
+        <v>37.323990499503601</v>
+      </c>
+      <c r="G45">
+        <v>36.889208375889098</v>
+      </c>
+      <c r="H45">
+        <v>37.377498230990398</v>
+      </c>
+      <c r="I45">
+        <v>38.054543106620699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>39</v>
+      </c>
+      <c r="D46">
+        <v>48.375964335153498</v>
+      </c>
+      <c r="E46">
+        <v>42.698898040148599</v>
+      </c>
+      <c r="F46">
+        <v>48.581171852921401</v>
+      </c>
+      <c r="G46">
+        <v>48.6081579109985</v>
+      </c>
+      <c r="H46">
+        <v>48.614794236175499</v>
+      </c>
+      <c r="I46">
+        <v>48.591077798334297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>53.9920721105346</v>
+      </c>
+      <c r="E47">
+        <v>55.8995662180861</v>
+      </c>
+      <c r="F47">
+        <v>51.905338688198398</v>
+      </c>
+      <c r="G47">
+        <v>50.700900582914699</v>
+      </c>
+      <c r="H47">
+        <v>50.586806885444801</v>
+      </c>
+      <c r="I47">
+        <v>53.406074553479499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>54</v>
+      </c>
+      <c r="D48">
+        <v>47.482708549205803</v>
+      </c>
+      <c r="E48">
+        <v>49.198548616179799</v>
+      </c>
+      <c r="F48">
+        <v>46.113392631199297</v>
+      </c>
+      <c r="G48">
+        <v>45.242046065597798</v>
+      </c>
+      <c r="H48">
+        <v>44.994750959837297</v>
+      </c>
+      <c r="I48">
+        <v>47.000886659852597</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>29.265711746632</v>
+      </c>
+      <c r="E49">
+        <v>22.481600186897801</v>
+      </c>
+      <c r="F49">
+        <v>30.786433072686201</v>
+      </c>
+      <c r="G49">
+        <v>31.698184363485002</v>
+      </c>
+      <c r="H49">
+        <v>31.491683619583199</v>
+      </c>
+      <c r="I49">
+        <v>29.6427827216698</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>55.645967955989498</v>
+      </c>
+      <c r="E50">
+        <v>55.100509781086203</v>
+      </c>
+      <c r="F50">
+        <v>54.009818753440797</v>
+      </c>
+      <c r="G50">
+        <v>52.988498905926498</v>
+      </c>
+      <c r="H50">
+        <v>53.216523519410302</v>
+      </c>
+      <c r="I50">
+        <v>55.026923044570601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>25</v>
+      </c>
+      <c r="D51">
+        <v>29.627772837356702</v>
+      </c>
+      <c r="E51">
+        <v>25.100060184288299</v>
+      </c>
+      <c r="F51">
+        <v>30.5058272613288</v>
+      </c>
+      <c r="G51">
+        <v>31.4963199688499</v>
+      </c>
+      <c r="H51">
+        <v>31.1824036203849</v>
+      </c>
+      <c r="I51">
+        <v>29.503082474967201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>55</v>
+      </c>
+      <c r="D52">
+        <v>55.751613047504001</v>
+      </c>
+      <c r="E52">
+        <v>54.876408496670003</v>
+      </c>
+      <c r="F52">
+        <v>54.482284447263297</v>
+      </c>
+      <c r="G52">
+        <v>53.468692332846899</v>
+      </c>
+      <c r="H52">
+        <v>54.298048529480397</v>
+      </c>
+      <c r="I52">
+        <v>55.7407442049088</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>44.173499250947799</v>
+      </c>
+      <c r="E53">
+        <v>49.500063717602103</v>
+      </c>
+      <c r="F53">
+        <v>43.548931773768999</v>
+      </c>
+      <c r="G53">
+        <v>43.002499470252403</v>
+      </c>
+      <c r="H53">
+        <v>43.190626691296004</v>
+      </c>
+      <c r="I53">
+        <v>44.196282773743199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>29</v>
+      </c>
+      <c r="D54">
+        <v>19.122824888516298</v>
+      </c>
+      <c r="E54">
+        <v>28.900073851958901</v>
+      </c>
+      <c r="F54">
+        <v>21.8948258199088</v>
+      </c>
+      <c r="G54">
+        <v>23.631788144285601</v>
+      </c>
+      <c r="H54">
+        <v>23.552377668755199</v>
+      </c>
+      <c r="I54">
+        <v>19.761730369246099</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>28</v>
+      </c>
+      <c r="D55">
+        <v>32.805038684405602</v>
+      </c>
+      <c r="E55">
+        <v>28.100202886998598</v>
+      </c>
+      <c r="F55">
+        <v>33.611031957686897</v>
+      </c>
+      <c r="G55">
+        <v>34.267279942542402</v>
+      </c>
+      <c r="H55">
+        <v>34.088378791827303</v>
+      </c>
+      <c r="I55">
+        <v>32.910115184954698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>53.072541527587902</v>
+      </c>
+      <c r="E56">
+        <v>50.099719778022298</v>
+      </c>
+      <c r="F56">
+        <v>51.628079640201904</v>
+      </c>
+      <c r="G56">
+        <v>50.604592419654203</v>
+      </c>
+      <c r="H56">
+        <v>50.051399636068297</v>
+      </c>
+      <c r="I56">
+        <v>52.512074734535503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>52</v>
+      </c>
+      <c r="D57">
+        <v>52.471541444344297</v>
+      </c>
+      <c r="E57">
+        <v>50.807089480152399</v>
+      </c>
+      <c r="F57">
+        <v>51.785953065956598</v>
+      </c>
+      <c r="G57">
+        <v>51.195696790589103</v>
+      </c>
+      <c r="H57">
+        <v>50.9113638636926</v>
+      </c>
+      <c r="I57">
+        <v>52.527787672176601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>36.794435445689601</v>
+      </c>
+      <c r="E58">
+        <v>26.9210304827598</v>
+      </c>
+      <c r="F58">
+        <v>36.720675928049197</v>
+      </c>
+      <c r="G58">
+        <v>36.710140971214599</v>
+      </c>
+      <c r="H58">
+        <v>37.592887210821601</v>
+      </c>
+      <c r="I58">
+        <v>37.162338591275201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>53</v>
+      </c>
+      <c r="D59">
+        <v>32.794818125336</v>
+      </c>
+      <c r="E59">
+        <v>33.4704918134154</v>
+      </c>
+      <c r="F59">
+        <v>33.8326857411231</v>
+      </c>
+      <c r="G59">
+        <v>34.303158968662601</v>
+      </c>
+      <c r="H59">
+        <v>34.036323556426403</v>
+      </c>
+      <c r="I59">
+        <v>33.201944470561202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>46</v>
+      </c>
+      <c r="D60">
+        <v>35.535138635989497</v>
+      </c>
+      <c r="E60">
+        <v>37.774407707468797</v>
+      </c>
+      <c r="F60">
+        <v>35.783759034174501</v>
+      </c>
+      <c r="G60">
+        <v>36.033826855409998</v>
+      </c>
+      <c r="H60">
+        <v>36.164397421946198</v>
+      </c>
+      <c r="I60">
+        <v>35.5703835943999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>44</v>
+      </c>
+      <c r="D61">
+        <v>39.752493053832801</v>
+      </c>
+      <c r="E61">
+        <v>43.899892399179599</v>
+      </c>
+      <c r="F61">
+        <v>39.046110151289803</v>
+      </c>
+      <c r="G61">
+        <v>38.740820347713303</v>
+      </c>
+      <c r="H61">
+        <v>39.607518279997102</v>
+      </c>
+      <c r="I61">
+        <v>39.488339708595298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>46</v>
+      </c>
+      <c r="D62">
+        <v>42.795208927923902</v>
+      </c>
+      <c r="E62">
+        <v>45.899891491908001</v>
+      </c>
+      <c r="F62">
+        <v>43.151333939055</v>
+      </c>
+      <c r="G62">
+        <v>43.205923576921997</v>
+      </c>
+      <c r="H62">
+        <v>43.598070650377103</v>
+      </c>
+      <c r="I62">
+        <v>43.302710830291403</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>37.0692324358915</v>
+      </c>
+      <c r="E63">
+        <v>31.274662947840699</v>
+      </c>
+      <c r="F63">
+        <v>37.283925006789403</v>
+      </c>
+      <c r="G63">
+        <v>37.3318045805281</v>
+      </c>
+      <c r="H63">
+        <v>37.682032720074602</v>
+      </c>
+      <c r="I63">
+        <v>37.144371861276902</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>47</v>
+      </c>
+      <c r="D64">
+        <v>51.164185651493199</v>
+      </c>
+      <c r="E64">
+        <v>47.100220177395997</v>
+      </c>
+      <c r="F64">
+        <v>48.6330739836894</v>
+      </c>
+      <c r="G64">
+        <v>47.245468618808502</v>
+      </c>
+      <c r="H64">
+        <v>47.3218187650236</v>
+      </c>
+      <c r="I64">
+        <v>50.172240592236903</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>54</v>
+      </c>
+      <c r="D65">
+        <v>46.259208196959797</v>
+      </c>
+      <c r="E65">
+        <v>51.877772079988702</v>
+      </c>
+      <c r="F65">
+        <v>45.706779719313701</v>
+      </c>
+      <c r="G65">
+        <v>45.2928205076852</v>
+      </c>
+      <c r="H65">
+        <v>44.931202961091699</v>
+      </c>
+      <c r="I65">
+        <v>46.069277899619699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>30.607857747030199</v>
+      </c>
+      <c r="E66">
+        <v>30.958163603932</v>
+      </c>
+      <c r="F66">
+        <v>31.1912180563927</v>
+      </c>
+      <c r="G66">
+        <v>31.847434483781399</v>
+      </c>
+      <c r="H66">
+        <v>31.768692056744602</v>
+      </c>
+      <c r="I66">
+        <v>30.409150904693199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>28.753201827544601</v>
+      </c>
+      <c r="E67">
+        <v>23.900132140884502</v>
+      </c>
+      <c r="F67">
+        <v>29.846671444820998</v>
+      </c>
+      <c r="G67">
+        <v>30.516515998445801</v>
+      </c>
+      <c r="H67">
+        <v>30.546822898592001</v>
+      </c>
+      <c r="I67">
+        <v>29.016938950095199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>29</v>
+      </c>
+      <c r="D68">
+        <v>28.687922596602402</v>
+      </c>
+      <c r="E68">
+        <v>29.1002429590209</v>
+      </c>
+      <c r="F68">
+        <v>30.1824523309127</v>
+      </c>
+      <c r="G68">
+        <v>31.009933793171001</v>
+      </c>
+      <c r="H68">
+        <v>31.182052722279099</v>
+      </c>
+      <c r="I68">
+        <v>29.721909640852299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>60</v>
+      </c>
+      <c r="D69">
+        <v>48.673479837284802</v>
+      </c>
+      <c r="E69">
+        <v>48.305324099793999</v>
+      </c>
+      <c r="F69">
+        <v>48.661294497083503</v>
+      </c>
+      <c r="G69">
+        <v>48.485420461793701</v>
+      </c>
+      <c r="H69">
+        <v>48.087607804799497</v>
+      </c>
+      <c r="I69">
+        <v>48.528355176128798</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>57</v>
+      </c>
+      <c r="D70">
+        <v>39.754345923821802</v>
+      </c>
+      <c r="E70">
+        <v>40.752415092714799</v>
+      </c>
+      <c r="F70">
+        <v>40.125302971816097</v>
+      </c>
+      <c r="G70">
+        <v>40.305826559265597</v>
+      </c>
+      <c r="H70">
+        <v>39.867952681723899</v>
+      </c>
+      <c r="I70">
+        <v>39.631563855822797</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>44.569434754518397</v>
+      </c>
+      <c r="E71">
+        <v>41.7212600073468</v>
+      </c>
+      <c r="F71">
+        <v>43.687017406769201</v>
+      </c>
+      <c r="G71">
+        <v>43.278247843846898</v>
+      </c>
+      <c r="H71">
+        <v>42.710162956527199</v>
+      </c>
+      <c r="I71">
+        <v>43.9359494659859</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>35</v>
+      </c>
+      <c r="D72">
+        <v>40.5920747643247</v>
+      </c>
+      <c r="E72">
+        <v>38.797999185153003</v>
+      </c>
+      <c r="F72">
+        <v>40.169573893842099</v>
+      </c>
+      <c r="G72">
+        <v>40.085760798232101</v>
+      </c>
+      <c r="H72">
+        <v>39.833461778247802</v>
+      </c>
+      <c r="I72">
+        <v>40.407517101372697</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>51</v>
+      </c>
+      <c r="D73">
+        <v>47.1257339334202</v>
+      </c>
+      <c r="E73">
+        <v>51.100477919042099</v>
+      </c>
+      <c r="F73">
+        <v>46.128851799063298</v>
+      </c>
+      <c r="G73">
+        <v>45.342464693678899</v>
+      </c>
+      <c r="H73">
+        <v>45.151508950121098</v>
+      </c>
+      <c r="I73">
+        <v>46.942811999809201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>48</v>
+      </c>
+      <c r="D74">
+        <v>40.337755541589999</v>
+      </c>
+      <c r="E74">
+        <v>47.579775210188501</v>
+      </c>
+      <c r="F74">
+        <v>39.862613756920801</v>
+      </c>
+      <c r="G74">
+        <v>39.646283465054204</v>
+      </c>
+      <c r="H74">
+        <v>39.841811456483903</v>
+      </c>
+      <c r="I74">
+        <v>40.462018510143899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>51</v>
+      </c>
+      <c r="D75">
+        <v>42.1159000139642</v>
+      </c>
+      <c r="E75">
+        <v>48.768662292182803</v>
+      </c>
+      <c r="F75">
+        <v>41.343802092404403</v>
+      </c>
+      <c r="G75">
+        <v>41.015770145531597</v>
+      </c>
+      <c r="H75">
+        <v>41.177937093212499</v>
+      </c>
+      <c r="I75">
+        <v>42.136838630636603</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>50</v>
+      </c>
+      <c r="D76">
+        <v>49.338661550231798</v>
+      </c>
+      <c r="E76">
+        <v>53.133246033649598</v>
+      </c>
+      <c r="F76">
+        <v>48.4288651015463</v>
+      </c>
+      <c r="G76">
+        <v>47.663557902087398</v>
+      </c>
+      <c r="H76">
+        <v>48.339318938914502</v>
+      </c>
+      <c r="I76">
+        <v>49.293306249400203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>30</v>
+      </c>
+      <c r="D77">
+        <v>31.881041321457499</v>
+      </c>
+      <c r="E77">
+        <v>31.5702463648513</v>
+      </c>
+      <c r="F77">
+        <v>32.585302529053102</v>
+      </c>
+      <c r="G77">
+        <v>33.047462175845197</v>
+      </c>
+      <c r="H77">
+        <v>33.409869297089202</v>
+      </c>
+      <c r="I77">
+        <v>32.431950145091797</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>24</v>
+      </c>
+      <c r="D78">
+        <v>23.317885532009502</v>
+      </c>
+      <c r="E78">
+        <v>23.471456842453499</v>
+      </c>
+      <c r="F78">
+        <v>24.753027434240401</v>
+      </c>
+      <c r="G78">
+        <v>25.814402017542101</v>
+      </c>
+      <c r="H78">
+        <v>25.8626762811794</v>
+      </c>
+      <c r="I78">
+        <v>23.587072176365002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>48</v>
+      </c>
+      <c r="D79">
+        <v>49.029645449108202</v>
+      </c>
+      <c r="E79">
+        <v>47.899780366281902</v>
+      </c>
+      <c r="F79">
+        <v>48.264245584478097</v>
+      </c>
+      <c r="G79">
+        <v>47.730383267873201</v>
+      </c>
+      <c r="H79">
+        <v>47.377306658139297</v>
+      </c>
+      <c r="I79">
+        <v>48.768183257310703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>17</v>
+      </c>
+      <c r="D80">
+        <v>39.779214621205398</v>
+      </c>
+      <c r="E80">
+        <v>37.582806957401502</v>
+      </c>
+      <c r="F80">
+        <v>40.162217360742801</v>
+      </c>
+      <c r="G80">
+        <v>40.119853377339403</v>
+      </c>
+      <c r="H80">
+        <v>39.648210212079597</v>
+      </c>
+      <c r="I80">
+        <v>39.763594526177698</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>39</v>
+      </c>
+      <c r="D81">
+        <v>31.390871855566399</v>
+      </c>
+      <c r="E81">
+        <v>38.899974279478798</v>
+      </c>
+      <c r="F81">
+        <v>33.490326734678902</v>
+      </c>
+      <c r="G81">
+        <v>34.951055763362703</v>
+      </c>
+      <c r="H81">
+        <v>34.750752586653903</v>
+      </c>
+      <c r="I81">
+        <v>31.7715252092299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>27</v>
+      </c>
+      <c r="D82">
+        <v>40.406158050051602</v>
+      </c>
+      <c r="E82">
+        <v>41.908753201243599</v>
+      </c>
+      <c r="F82">
+        <v>41.875945289925298</v>
+      </c>
+      <c r="G82">
+        <v>42.337891622909197</v>
+      </c>
+      <c r="H82">
+        <v>41.765435305811302</v>
+      </c>
+      <c r="I82">
+        <v>41.0899652431861</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>55</v>
+      </c>
+      <c r="D83">
+        <v>46.185824982418602</v>
+      </c>
+      <c r="E83">
+        <v>54.899841083145603</v>
+      </c>
+      <c r="F83">
+        <v>45.216910859357199</v>
+      </c>
+      <c r="G83">
+        <v>44.715540946094301</v>
+      </c>
+      <c r="H83">
+        <v>44.259892492710598</v>
+      </c>
+      <c r="I83">
+        <v>45.713000529543599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>54</v>
+      </c>
+      <c r="D84">
+        <v>39.782297798347599</v>
+      </c>
+      <c r="E84">
+        <v>43.063226359941901</v>
+      </c>
+      <c r="F84">
+        <v>39.940560510724303</v>
+      </c>
+      <c r="G84">
+        <v>40.132026145221303</v>
+      </c>
+      <c r="H84">
+        <v>40.761145869876998</v>
+      </c>
+      <c r="I84">
+        <v>40.174540639022197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>53</v>
+      </c>
+      <c r="D85">
+        <v>55.060017498568698</v>
+      </c>
+      <c r="E85">
+        <v>52.899931025515102</v>
+      </c>
+      <c r="F85">
+        <v>54.192088059151097</v>
+      </c>
+      <c r="G85">
+        <v>53.523406784129001</v>
+      </c>
+      <c r="H85">
+        <v>53.314336672784997</v>
+      </c>
+      <c r="I85">
+        <v>54.1838751870403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>33</v>
+      </c>
+      <c r="D86">
+        <v>34.974567555241798</v>
+      </c>
+      <c r="E86">
+        <v>33.386052723802102</v>
+      </c>
+      <c r="F86">
+        <v>36.355572659303697</v>
+      </c>
+      <c r="G86">
+        <v>37.147860849676903</v>
+      </c>
+      <c r="H86">
+        <v>36.674026480290102</v>
+      </c>
+      <c r="I86">
+        <v>35.489284904606897</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>52</v>
+      </c>
+      <c r="D87">
+        <v>43.377857993597999</v>
+      </c>
+      <c r="E87">
+        <v>47.7240686679284</v>
+      </c>
+      <c r="F87">
+        <v>42.3001148790282</v>
+      </c>
+      <c r="G87">
+        <v>41.817452851241796</v>
+      </c>
+      <c r="H87">
+        <v>41.572114348562998</v>
+      </c>
+      <c r="I87">
+        <v>42.921719640425799</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>34</v>
+      </c>
+      <c r="D88">
+        <v>37.8574202437932</v>
+      </c>
+      <c r="E88">
+        <v>38.322707933747701</v>
+      </c>
+      <c r="F88">
+        <v>38.822099449659198</v>
+      </c>
+      <c r="G88">
+        <v>39.002000693881399</v>
+      </c>
+      <c r="H88">
+        <v>38.774351537344401</v>
+      </c>
+      <c r="I88">
+        <v>38.391578377051097</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>33</v>
+      </c>
+      <c r="D89">
+        <v>30.8012255288745</v>
+      </c>
+      <c r="E89">
+        <v>29.131792673493901</v>
+      </c>
+      <c r="F89">
+        <v>30.125832077741801</v>
+      </c>
+      <c r="G89">
+        <v>30.623863214623299</v>
+      </c>
+      <c r="H89">
+        <v>30.9412699516214</v>
+      </c>
+      <c r="I89">
+        <v>29.857033908126699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>53</v>
+      </c>
+      <c r="D90">
+        <v>50.020338267669402</v>
+      </c>
+      <c r="E90">
+        <v>52.899878638715599</v>
+      </c>
+      <c r="F90">
+        <v>49.588065570902003</v>
+      </c>
+      <c r="G90">
+        <v>49.201129438575101</v>
+      </c>
+      <c r="H90">
+        <v>49.693092023486102</v>
+      </c>
+      <c r="I90">
+        <v>50.261167726958703</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>24</v>
+      </c>
+      <c r="D91">
+        <v>27.0672540957706</v>
+      </c>
+      <c r="E91">
+        <v>25.804433193061701</v>
+      </c>
+      <c r="F91">
+        <v>29.2440327189328</v>
+      </c>
+      <c r="G91">
+        <v>30.341020668134501</v>
+      </c>
+      <c r="H91">
+        <v>30.020904246339999</v>
+      </c>
+      <c r="I91">
+        <v>28.0426869329889</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>46</v>
+      </c>
+      <c r="D92">
+        <v>48.6348608395311</v>
+      </c>
+      <c r="E92">
+        <v>45.900376112920398</v>
+      </c>
+      <c r="F92">
+        <v>47.313687673871399</v>
+      </c>
+      <c r="G92">
+        <v>46.726189954577301</v>
+      </c>
+      <c r="H92">
+        <v>46.782734598563103</v>
+      </c>
+      <c r="I92">
+        <v>47.910015180254298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>41</v>
+      </c>
+      <c r="D93">
+        <v>39.156009375443901</v>
+      </c>
+      <c r="E93">
+        <v>41.099586466917799</v>
+      </c>
+      <c r="F93">
+        <v>39.593602691945698</v>
+      </c>
+      <c r="G93">
+        <v>39.586731318648802</v>
+      </c>
+      <c r="H93">
+        <v>39.5342231617526</v>
+      </c>
+      <c r="I93">
+        <v>39.2017832854403</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>45</v>
+      </c>
+      <c r="D94">
+        <v>43.467866355674801</v>
+      </c>
+      <c r="E94">
+        <v>45.100299615759702</v>
+      </c>
+      <c r="F94">
+        <v>43.2020645589078</v>
+      </c>
+      <c r="G94">
+        <v>42.970820802711302</v>
+      </c>
+      <c r="H94">
+        <v>42.416476540479898</v>
+      </c>
+      <c r="I94">
+        <v>43.031234774241497</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>46</v>
+      </c>
+      <c r="D95">
+        <v>52.126392783377497</v>
+      </c>
+      <c r="E95">
+        <v>46.0998675709385</v>
+      </c>
+      <c r="F95">
+        <v>51.254508480056899</v>
+      </c>
+      <c r="G95">
+        <v>50.572224133405904</v>
+      </c>
+      <c r="H95">
+        <v>50.359756177489601</v>
+      </c>
+      <c r="I95">
+        <v>52.165439807516798</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>34</v>
+      </c>
+      <c r="D96">
+        <v>38.942742293377698</v>
+      </c>
+      <c r="E96">
+        <v>35.496543438522501</v>
+      </c>
+      <c r="F96">
+        <v>39.473023703832297</v>
+      </c>
+      <c r="G96">
+        <v>39.490284331615001</v>
+      </c>
+      <c r="H96">
+        <v>39.785840443471898</v>
+      </c>
+      <c r="I96">
+        <v>39.323398779248798</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>36</v>
+      </c>
+      <c r="D97">
+        <v>39.735800266287598</v>
+      </c>
+      <c r="E97">
+        <v>36.6448669772643</v>
+      </c>
+      <c r="F97">
+        <v>39.9215784541842</v>
+      </c>
+      <c r="G97">
+        <v>40.184006289501198</v>
+      </c>
+      <c r="H97">
+        <v>40.426742743147102</v>
+      </c>
+      <c r="I97">
+        <v>39.683673758518502</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>50</v>
+      </c>
+      <c r="D98">
+        <v>44.758090501189599</v>
+      </c>
+      <c r="E98">
+        <v>49.899922175513602</v>
+      </c>
+      <c r="F98">
+        <v>45.099610040994797</v>
+      </c>
+      <c r="G98">
+        <v>45.197382852958199</v>
+      </c>
+      <c r="H98">
+        <v>44.854633468020502</v>
+      </c>
+      <c r="I98">
+        <v>44.681373098024103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>48</v>
+      </c>
+      <c r="D99">
+        <v>37.7323778788436</v>
+      </c>
+      <c r="E99">
+        <v>38.468341813599601</v>
+      </c>
+      <c r="F99">
+        <v>38.000082117885803</v>
+      </c>
+      <c r="G99">
+        <v>38.169365120514797</v>
+      </c>
+      <c r="H99">
+        <v>38.037708378498998</v>
+      </c>
+      <c r="I99">
+        <v>37.635488557888003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>56</v>
+      </c>
+      <c r="D100">
+        <v>48.2027423187265</v>
+      </c>
+      <c r="E100">
+        <v>53.339322860812402</v>
+      </c>
+      <c r="F100">
+        <v>47.905156502118302</v>
+      </c>
+      <c r="G100">
+        <v>47.464732185546602</v>
+      </c>
+      <c r="H100">
+        <v>46.730994163999597</v>
+      </c>
+      <c r="I100">
+        <v>47.838281627637997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>34</v>
+      </c>
+      <c r="D101">
+        <v>30.6885826141602</v>
+      </c>
+      <c r="E101">
+        <v>28.816533583438002</v>
+      </c>
+      <c r="F101">
+        <v>31.428827955351199</v>
+      </c>
+      <c r="G101">
+        <v>31.8896384399849</v>
+      </c>
+      <c r="H101">
+        <v>31.862312201491001</v>
+      </c>
+      <c r="I101">
+        <v>31.019855500424601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>53</v>
+      </c>
+      <c r="D102">
+        <v>37.550436149223103</v>
+      </c>
+      <c r="E102">
+        <v>39.483319130306</v>
+      </c>
+      <c r="F102">
+        <v>37.973707886329997</v>
+      </c>
+      <c r="G102">
+        <v>38.105853781434497</v>
+      </c>
+      <c r="H102">
+        <v>38.0822104613557</v>
+      </c>
+      <c r="I102">
+        <v>37.892813571282801</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>52</v>
+      </c>
+      <c r="D103">
+        <v>43.614123324818699</v>
+      </c>
+      <c r="E103">
+        <v>46.7022580834902</v>
+      </c>
+      <c r="F103">
+        <v>42.484972022707197</v>
+      </c>
+      <c r="G103">
+        <v>41.794012246636903</v>
+      </c>
+      <c r="H103">
+        <v>41.8441357009592</v>
+      </c>
+      <c r="I103">
+        <v>43.512512266302799</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>36</v>
+      </c>
+      <c r="D104">
+        <v>38.509595019069302</v>
+      </c>
+      <c r="E104">
+        <v>35.987745645125898</v>
+      </c>
+      <c r="F104">
+        <v>38.139797171408297</v>
+      </c>
+      <c r="G104">
+        <v>37.841583931530501</v>
+      </c>
+      <c r="H104">
+        <v>37.527740952523999</v>
+      </c>
+      <c r="I104">
+        <v>38.046997407473498</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>52</v>
+      </c>
+      <c r="D105">
+        <v>36.845431787473899</v>
+      </c>
+      <c r="E105">
+        <v>42.208497431655999</v>
+      </c>
+      <c r="F105">
+        <v>37.112605913838102</v>
+      </c>
+      <c r="G105">
+        <v>37.344100383793801</v>
+      </c>
+      <c r="H105">
+        <v>37.3901913639708</v>
+      </c>
+      <c r="I105">
+        <v>37.063902946615599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>50</v>
+      </c>
+      <c r="D106">
+        <v>54.602644168615498</v>
+      </c>
+      <c r="E106">
+        <v>49.900050895724</v>
+      </c>
+      <c r="F106">
+        <v>52.604041942906797</v>
+      </c>
+      <c r="G106">
+        <v>51.276159475639098</v>
+      </c>
+      <c r="H106">
+        <v>50.8564109333959</v>
+      </c>
+      <c r="I106">
+        <v>54.0151679677912</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107">
+        <v>29.550555764174099</v>
+      </c>
+      <c r="E107">
+        <v>22.367750157282799</v>
+      </c>
+      <c r="F107">
+        <v>30.372912592172799</v>
+      </c>
+      <c r="G107">
+        <v>30.883509529004499</v>
+      </c>
+      <c r="H107">
+        <v>31.363849631442001</v>
+      </c>
+      <c r="I107">
+        <v>29.986481410022002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>30</v>
+      </c>
+      <c r="D108">
+        <v>37.509063075845297</v>
+      </c>
+      <c r="E108">
+        <v>33.232060270774802</v>
+      </c>
+      <c r="F108">
+        <v>37.428796556021901</v>
+      </c>
+      <c r="G108">
+        <v>37.406776166612197</v>
+      </c>
+      <c r="H108">
+        <v>37.559767184315703</v>
+      </c>
+      <c r="I108">
+        <v>37.534179535440501</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>46</v>
+      </c>
+      <c r="D109">
+        <v>51.585017526835202</v>
+      </c>
+      <c r="E109">
+        <v>46.099621475500498</v>
+      </c>
+      <c r="F109">
+        <v>50.0338551037649</v>
+      </c>
+      <c r="G109">
+        <v>49.202608564511799</v>
+      </c>
+      <c r="H109">
+        <v>48.812205257166703</v>
+      </c>
+      <c r="I109">
+        <v>51.250914085481398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>44</v>
+      </c>
+      <c r="D110">
+        <v>40.0878971486731</v>
+      </c>
+      <c r="E110">
+        <v>44.100037151160599</v>
+      </c>
+      <c r="F110">
+        <v>39.768424498183997</v>
+      </c>
+      <c r="G110">
+        <v>39.779315416797601</v>
+      </c>
+      <c r="H110">
+        <v>39.703108555768203</v>
+      </c>
+      <c r="I110">
+        <v>39.810293887882302</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>34</v>
+      </c>
+      <c r="D111">
+        <v>45.093303503749503</v>
+      </c>
+      <c r="E111">
+        <v>36.265337657128001</v>
+      </c>
+      <c r="F111">
+        <v>42.6058078758618</v>
+      </c>
+      <c r="G111">
+        <v>41.743402234305599</v>
+      </c>
+      <c r="H111">
+        <v>42.049550411680698</v>
+      </c>
+      <c r="I111">
+        <v>43.6250010059508</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>61</v>
+      </c>
+      <c r="D112">
+        <v>41.957433079977797</v>
+      </c>
+      <c r="E112">
+        <v>44.378445642157601</v>
+      </c>
+      <c r="F112">
+        <v>41.965796808799603</v>
+      </c>
+      <c r="G112">
+        <v>41.752180602942097</v>
+      </c>
+      <c r="H112">
+        <v>41.917606612434497</v>
+      </c>
+      <c r="I112">
+        <v>42.090310127112303</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>24</v>
+      </c>
+      <c r="D113">
+        <v>37.370478264727197</v>
+      </c>
+      <c r="E113">
+        <v>31.9824874872048</v>
+      </c>
+      <c r="F113">
+        <v>37.251625295292001</v>
+      </c>
+      <c r="G113">
+        <v>37.2747680677044</v>
+      </c>
+      <c r="H113">
+        <v>37.449235532007997</v>
+      </c>
+      <c r="I113">
+        <v>37.2077039222672</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>25</v>
+      </c>
+      <c r="D114">
+        <v>30.210023499697499</v>
+      </c>
+      <c r="E114">
+        <v>25.099768720346599</v>
+      </c>
+      <c r="F114">
+        <v>31.479451142271898</v>
+      </c>
+      <c r="G114">
+        <v>32.354155650670499</v>
+      </c>
+      <c r="H114">
+        <v>32.337501340477701</v>
+      </c>
+      <c r="I114">
+        <v>30.7501415807562</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>48</v>
+      </c>
+      <c r="D115">
+        <v>47.238041887777001</v>
+      </c>
+      <c r="E115">
+        <v>47.899686200685601</v>
+      </c>
+      <c r="F115">
+        <v>45.276913694140703</v>
+      </c>
+      <c r="G115">
+        <v>44.705629211507798</v>
+      </c>
+      <c r="H115">
+        <v>45.022863003048997</v>
+      </c>
+      <c r="I115">
+        <v>45.764000608560998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>26</v>
+      </c>
+      <c r="D116">
+        <v>28.803746375740701</v>
+      </c>
+      <c r="E116">
+        <v>25.8999193536463</v>
+      </c>
+      <c r="F116">
+        <v>29.770405948879201</v>
+      </c>
+      <c r="G116">
+        <v>30.282253627087002</v>
+      </c>
+      <c r="H116">
+        <v>30.572279812923298</v>
+      </c>
+      <c r="I116">
+        <v>29.183229790606099</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>45</v>
+      </c>
+      <c r="D117">
+        <v>44.6234998509318</v>
+      </c>
+      <c r="E117">
+        <v>44.9000207746315</v>
+      </c>
+      <c r="F117">
+        <v>44.483339727664401</v>
+      </c>
+      <c r="G117">
+        <v>44.248948345677199</v>
+      </c>
+      <c r="H117">
+        <v>44.170410107345297</v>
+      </c>
+      <c r="I117">
+        <v>44.510671502858699</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>35</v>
+      </c>
+      <c r="D118">
+        <v>39.902612293700699</v>
+      </c>
+      <c r="E118">
+        <v>41.1195135706323</v>
+      </c>
+      <c r="F118">
+        <v>39.475423845751102</v>
+      </c>
+      <c r="G118">
+        <v>39.492031363484898</v>
+      </c>
+      <c r="H118">
+        <v>39.383979368488298</v>
+      </c>
+      <c r="I118">
+        <v>39.468006440844299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>32</v>
+      </c>
+      <c r="D119">
+        <v>28.284356305285101</v>
+      </c>
+      <c r="E119">
+        <v>30.439951633688501</v>
+      </c>
+      <c r="F119">
+        <v>28.015434252038499</v>
+      </c>
+      <c r="G119">
+        <v>28.7882815350758</v>
+      </c>
+      <c r="H119">
+        <v>29.300698681823</v>
+      </c>
+      <c r="I119">
+        <v>27.697008178563902</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>28</v>
+      </c>
+      <c r="D120">
+        <v>47.264001758189799</v>
+      </c>
+      <c r="E120">
+        <v>41.700397919781402</v>
+      </c>
+      <c r="F120">
+        <v>46.816111087620001</v>
+      </c>
+      <c r="G120">
+        <v>46.496564534734098</v>
+      </c>
+      <c r="H120">
+        <v>45.917112996824201</v>
+      </c>
+      <c r="I120">
+        <v>47.367104877773599</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>32</v>
+      </c>
+      <c r="D121">
+        <v>42.994207434091798</v>
+      </c>
+      <c r="E121">
+        <v>33.023404504179503</v>
+      </c>
+      <c r="F121">
+        <v>42.193454944102399</v>
+      </c>
+      <c r="G121">
+        <v>41.794932509154997</v>
+      </c>
+      <c r="H121">
+        <v>41.952796178843499</v>
+      </c>
+      <c r="I121">
+        <v>42.983019256708801</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>33</v>
+      </c>
+      <c r="D122">
+        <v>42.947912485648999</v>
+      </c>
+      <c r="E122">
+        <v>36.222529899758399</v>
+      </c>
+      <c r="F122">
+        <v>43.159034368646701</v>
+      </c>
+      <c r="G122">
+        <v>43.182388536824398</v>
+      </c>
+      <c r="H122">
+        <v>42.791094949552701</v>
+      </c>
+      <c r="I122">
+        <v>43.167805799934399</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>54</v>
+      </c>
+      <c r="D123">
+        <v>38.312669980061202</v>
+      </c>
+      <c r="E123">
+        <v>43.492991607188998</v>
+      </c>
+      <c r="F123">
+        <v>37.5639089934174</v>
+      </c>
+      <c r="G123">
+        <v>37.344432568035202</v>
+      </c>
+      <c r="H123">
+        <v>37.133372653039302</v>
+      </c>
+      <c r="I123">
+        <v>37.375933406197099</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>26</v>
+      </c>
+      <c r="D124">
+        <v>26.3309847578684</v>
+      </c>
+      <c r="E124">
+        <v>27.273048475064002</v>
+      </c>
+      <c r="F124">
+        <v>28.667156781423099</v>
+      </c>
+      <c r="G124">
+        <v>30.445732751541801</v>
+      </c>
+      <c r="H124">
+        <v>30.238087523981399</v>
+      </c>
+      <c r="I124">
+        <v>26.668000696910202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>44</v>
+      </c>
+      <c r="D125">
+        <v>57.416095798395197</v>
+      </c>
+      <c r="E125">
+        <v>50.847146541009998</v>
+      </c>
+      <c r="F125">
+        <v>55.382188825386798</v>
+      </c>
+      <c r="G125">
+        <v>54.113041410325103</v>
+      </c>
+      <c r="H125">
+        <v>54.281067287875103</v>
+      </c>
+      <c r="I125">
+        <v>57.177949006930497</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>31</v>
+      </c>
+      <c r="D126">
+        <v>34.946802166546597</v>
+      </c>
+      <c r="E126">
+        <v>30.8999310330701</v>
+      </c>
+      <c r="F126">
+        <v>35.076931695915697</v>
+      </c>
+      <c r="G126">
+        <v>35.174796302940202</v>
+      </c>
+      <c r="H126">
+        <v>35.815364311944897</v>
+      </c>
+      <c r="I126">
+        <v>35.454064544018202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>60</v>
+      </c>
+      <c r="D127">
+        <v>45.514094723564803</v>
+      </c>
+      <c r="E127">
+        <v>51.745709417032998</v>
+      </c>
+      <c r="F127">
+        <v>45.2736143266943</v>
+      </c>
+      <c r="G127">
+        <v>44.899760898734201</v>
+      </c>
+      <c r="H127">
+        <v>44.903726611987103</v>
+      </c>
+      <c r="I127">
+        <v>45.544227003607503</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>26</v>
+      </c>
+      <c r="D128">
+        <v>24.074650503960498</v>
+      </c>
+      <c r="E128">
+        <v>29.608680704275699</v>
+      </c>
+      <c r="F128">
+        <v>25.812280441787301</v>
+      </c>
+      <c r="G128">
+        <v>27.052379555709599</v>
+      </c>
+      <c r="H128">
+        <v>26.954499233548599</v>
+      </c>
+      <c r="I128">
+        <v>24.574996953312699</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>38</v>
+      </c>
+      <c r="D129">
+        <v>30.164151549477999</v>
+      </c>
+      <c r="E129">
+        <v>29.990635540037399</v>
+      </c>
+      <c r="F129">
+        <v>31.037920642529102</v>
+      </c>
+      <c r="G129">
+        <v>31.6951697077231</v>
+      </c>
+      <c r="H129">
+        <v>31.5819514996703</v>
+      </c>
+      <c r="I129">
+        <v>30.625737318088898</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>58</v>
+      </c>
+      <c r="D130">
+        <v>50.649909543219103</v>
+      </c>
+      <c r="E130">
+        <v>53.733962903664903</v>
+      </c>
+      <c r="F130">
+        <v>50.820734589252801</v>
+      </c>
+      <c r="G130">
+        <v>50.528557065326403</v>
+      </c>
+      <c r="H130">
+        <v>50.911681392806798</v>
+      </c>
+      <c r="I130">
+        <v>50.876837567021099</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>23</v>
+      </c>
+      <c r="D131">
+        <v>33.395629741983001</v>
+      </c>
+      <c r="E131">
+        <v>27.193321344263602</v>
+      </c>
+      <c r="F131">
+        <v>33.8727902329694</v>
+      </c>
+      <c r="G131">
+        <v>34.211533873536197</v>
+      </c>
+      <c r="H131">
+        <v>34.487897140083902</v>
+      </c>
+      <c r="I131">
+        <v>33.174620599874103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>54</v>
+      </c>
+      <c r="D132">
+        <v>47.135625439268601</v>
+      </c>
+      <c r="E132">
+        <v>54.099584196777798</v>
+      </c>
+      <c r="F132">
+        <v>46.1432773065196</v>
+      </c>
+      <c r="G132">
+        <v>45.5487428233806</v>
+      </c>
+      <c r="H132">
+        <v>45.868196965583302</v>
+      </c>
+      <c r="I132">
+        <v>47.052840645856499</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>51</v>
+      </c>
+      <c r="D133">
+        <v>62.190108181458697</v>
+      </c>
+      <c r="E133">
+        <v>50.899568072923699</v>
+      </c>
+      <c r="F133">
+        <v>59.710250423414301</v>
+      </c>
+      <c r="G133">
+        <v>58.071774909842802</v>
+      </c>
+      <c r="H133">
+        <v>57.972860853526498</v>
+      </c>
+      <c r="I133">
+        <v>61.225104776646297</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>59</v>
+      </c>
+      <c r="D134">
+        <v>49.684356574387699</v>
+      </c>
+      <c r="E134">
+        <v>51.602552499397099</v>
+      </c>
+      <c r="F134">
+        <v>49.182866444381098</v>
+      </c>
+      <c r="G134">
+        <v>48.606104038456301</v>
+      </c>
+      <c r="H134">
+        <v>48.340419111078198</v>
+      </c>
+      <c r="I134">
+        <v>49.4466235444145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>50</v>
+      </c>
+      <c r="D135">
+        <v>45.827221995735002</v>
+      </c>
+      <c r="E135">
+        <v>49.899780525996199</v>
+      </c>
+      <c r="F135">
+        <v>44.773856360366601</v>
+      </c>
+      <c r="G135">
+        <v>44.260263658061</v>
+      </c>
+      <c r="H135">
+        <v>43.9133422932032</v>
+      </c>
+      <c r="I135">
+        <v>45.293937298736097</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>24</v>
+      </c>
+      <c r="D136">
+        <v>38.480610837252698</v>
+      </c>
+      <c r="E136">
+        <v>36.513859968949497</v>
+      </c>
+      <c r="F136">
+        <v>38.1531847334604</v>
+      </c>
+      <c r="G136">
+        <v>38.205453609794802</v>
+      </c>
+      <c r="H136">
+        <v>38.315060176940797</v>
+      </c>
+      <c r="I136">
+        <v>38.124698443828599</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>58</v>
+      </c>
+      <c r="D137">
+        <v>49.918771120726198</v>
+      </c>
+      <c r="E137">
+        <v>55.005398847697599</v>
+      </c>
+      <c r="F137">
+        <v>49.090591204074599</v>
+      </c>
+      <c r="G137">
+        <v>48.404802615951702</v>
+      </c>
+      <c r="H137">
+        <v>47.801192556958803</v>
+      </c>
+      <c r="I137">
+        <v>49.635710377545401</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>29</v>
+      </c>
+      <c r="D138">
+        <v>36.525199608659896</v>
+      </c>
+      <c r="E138">
+        <v>31.7183136531605</v>
+      </c>
+      <c r="F138">
+        <v>36.710631088651603</v>
+      </c>
+      <c r="G138">
+        <v>36.798805557725601</v>
+      </c>
+      <c r="H138">
+        <v>36.153602241495101</v>
+      </c>
+      <c r="I138">
+        <v>36.407835062921698</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>17</v>
+      </c>
+      <c r="D139">
+        <v>32.516419502309702</v>
+      </c>
+      <c r="E139">
+        <v>28.368866410703099</v>
+      </c>
+      <c r="F139">
+        <v>31.436804771566401</v>
+      </c>
+      <c r="G139">
+        <v>31.547552923970599</v>
+      </c>
+      <c r="H139">
+        <v>31.882860563046901</v>
+      </c>
+      <c r="I139">
+        <v>31.671825422709901</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <v>21</v>
+      </c>
+      <c r="D140">
+        <v>36.603346586534599</v>
+      </c>
+      <c r="E140">
+        <v>31.627287737895301</v>
+      </c>
+      <c r="F140">
+        <v>36.824632978029598</v>
+      </c>
+      <c r="G140">
+        <v>37.0508669835992</v>
+      </c>
+      <c r="H140">
+        <v>36.8273203772941</v>
+      </c>
+      <c r="I140">
+        <v>36.590974768094497</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>29</v>
+      </c>
+      <c r="D141">
+        <v>28.1432967955331</v>
+      </c>
+      <c r="E141">
+        <v>28.2239111965063</v>
+      </c>
+      <c r="F141">
+        <v>30.035048368548701</v>
+      </c>
+      <c r="G141">
+        <v>31.070474304039401</v>
+      </c>
+      <c r="H141">
+        <v>30.799984293976401</v>
+      </c>
+      <c r="I141">
+        <v>28.4429042397784</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>46</v>
+      </c>
+      <c r="D142">
+        <v>55.160413371747701</v>
+      </c>
+      <c r="E142">
+        <v>45.900075566021101</v>
+      </c>
+      <c r="F142">
+        <v>54.659059407961102</v>
+      </c>
+      <c r="G142">
+        <v>53.983646611584199</v>
+      </c>
+      <c r="H142">
+        <v>53.847985405748197</v>
+      </c>
+      <c r="I142">
+        <v>55.261117163175498</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>43</v>
+      </c>
+      <c r="D143">
+        <v>43.719613458335701</v>
+      </c>
+      <c r="E143">
+        <v>48.395068885223303</v>
+      </c>
+      <c r="F143">
+        <v>43.353686957073698</v>
+      </c>
+      <c r="G143">
+        <v>42.950928944591801</v>
+      </c>
+      <c r="H143">
+        <v>42.721651854036097</v>
+      </c>
+      <c r="I143">
+        <v>43.486991065466498</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>23</v>
+      </c>
+      <c r="D144">
+        <v>29.748150638546001</v>
+      </c>
+      <c r="E144">
+        <v>23.8330706418933</v>
+      </c>
+      <c r="F144">
+        <v>31.457702183311</v>
+      </c>
+      <c r="G144">
+        <v>32.342849674398401</v>
+      </c>
+      <c r="H144">
+        <v>32.146758185595097</v>
+      </c>
+      <c r="I144">
+        <v>30.264141457502401</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>52</v>
+      </c>
+      <c r="D145">
+        <v>41.688896951118501</v>
+      </c>
+      <c r="E145">
+        <v>49.028239991168597</v>
+      </c>
+      <c r="F145">
+        <v>42.0293514389666</v>
+      </c>
+      <c r="G145">
+        <v>42.0223974342274</v>
+      </c>
+      <c r="H145">
+        <v>41.848603784141901</v>
+      </c>
+      <c r="I145">
+        <v>41.513521760506499</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>26</v>
+      </c>
+      <c r="D146">
+        <v>27.970807717683901</v>
+      </c>
+      <c r="E146">
+        <v>27.070415254556899</v>
+      </c>
+      <c r="F146">
+        <v>27.908139303218899</v>
+      </c>
+      <c r="G146">
+        <v>28.258817612919199</v>
+      </c>
+      <c r="H146">
+        <v>28.3392496942799</v>
+      </c>
+      <c r="I146">
+        <v>27.606399407238499</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>17</v>
+      </c>
+      <c r="D147">
+        <v>16.896464669625701</v>
+      </c>
+      <c r="E147">
+        <v>24.7866626471465</v>
+      </c>
+      <c r="F147">
+        <v>19.2581366047621</v>
+      </c>
+      <c r="G147">
+        <v>20.936945966340701</v>
+      </c>
+      <c r="H147">
+        <v>21.360326482879898</v>
+      </c>
+      <c r="I147">
+        <v>17.3606953271618</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>16</v>
+      </c>
+      <c r="D148">
+        <v>28.8792705728067</v>
+      </c>
+      <c r="E148">
+        <v>26.5886446529937</v>
+      </c>
+      <c r="F148">
+        <v>31.484664155471499</v>
+      </c>
+      <c r="G148">
+        <v>32.8687150876939</v>
+      </c>
+      <c r="H148">
+        <v>33.331366143240203</v>
+      </c>
+      <c r="I148">
+        <v>30.1019568331714</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>28</v>
+      </c>
+      <c r="D149">
+        <v>39.519285273146799</v>
+      </c>
+      <c r="E149">
+        <v>30.875058269699199</v>
+      </c>
+      <c r="F149">
+        <v>38.704386343837101</v>
+      </c>
+      <c r="G149">
+        <v>38.488947679178096</v>
+      </c>
+      <c r="H149">
+        <v>38.622878047717897</v>
+      </c>
+      <c r="I149">
+        <v>38.713454584054098</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>24</v>
+      </c>
+      <c r="D150">
+        <v>24.114839285516101</v>
+      </c>
+      <c r="E150">
+        <v>24.0996957769791</v>
+      </c>
+      <c r="F150">
+        <v>25.655962523760401</v>
+      </c>
+      <c r="G150">
+        <v>26.976754205466499</v>
+      </c>
+      <c r="H150">
+        <v>26.807337235132799</v>
+      </c>
+      <c r="I150">
+        <v>24.2900933742972</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>61</v>
+      </c>
+      <c r="D151">
+        <v>47.620935151665797</v>
+      </c>
+      <c r="E151">
+        <v>55.9123324205787</v>
+      </c>
+      <c r="F151">
+        <v>46.365915573684397</v>
+      </c>
+      <c r="G151">
+        <v>45.697375732062703</v>
+      </c>
+      <c r="H151">
+        <v>45.904849670986401</v>
+      </c>
+      <c r="I151">
+        <v>47.212538033881899</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>47</v>
+      </c>
+      <c r="D152">
+        <v>45.890020193506103</v>
+      </c>
+      <c r="E152">
+        <v>46.900427680643297</v>
+      </c>
+      <c r="F152">
+        <v>46.279021595310603</v>
+      </c>
+      <c r="G152">
+        <v>46.223255545179804</v>
+      </c>
+      <c r="H152">
+        <v>46.6658476605663</v>
+      </c>
+      <c r="I152">
+        <v>46.292769854520699</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>34</v>
+      </c>
+      <c r="D153">
+        <v>33.753750097568698</v>
+      </c>
+      <c r="E153">
+        <v>31.563797135258199</v>
+      </c>
+      <c r="F153">
+        <v>34.304740875276302</v>
+      </c>
+      <c r="G153">
+        <v>34.616273561697398</v>
+      </c>
+      <c r="H153">
+        <v>34.653539315475903</v>
+      </c>
+      <c r="I153">
+        <v>33.707577692397201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>46</v>
+      </c>
+      <c r="D154">
+        <v>42.985630979872901</v>
+      </c>
+      <c r="E154">
+        <v>45.900470831775202</v>
+      </c>
+      <c r="F154">
+        <v>42.6406322850941</v>
+      </c>
+      <c r="G154">
+        <v>42.4278962125939</v>
+      </c>
+      <c r="H154">
+        <v>42.113673222802198</v>
+      </c>
+      <c r="I154">
+        <v>42.6273535194874</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>23</v>
+      </c>
+      <c r="D155">
+        <v>28.579857993913201</v>
+      </c>
+      <c r="E155">
+        <v>23.099682959851702</v>
+      </c>
+      <c r="F155">
+        <v>29.8348901124278</v>
+      </c>
+      <c r="G155">
+        <v>30.569697721007199</v>
+      </c>
+      <c r="H155">
+        <v>30.776944882344999</v>
+      </c>
+      <c r="I155">
+        <v>28.9267491818911</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>59</v>
+      </c>
+      <c r="D156">
+        <v>38.404502025918703</v>
+      </c>
+      <c r="E156">
+        <v>36.382044909867403</v>
+      </c>
+      <c r="F156">
+        <v>38.247698323146999</v>
+      </c>
+      <c r="G156">
+        <v>38.265696140523801</v>
+      </c>
+      <c r="H156">
+        <v>38.314892335827899</v>
+      </c>
+      <c r="I156">
+        <v>38.176659750141901</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>28</v>
+      </c>
+      <c r="D157">
+        <v>36.821663674687102</v>
+      </c>
+      <c r="E157">
+        <v>33.8336507657434</v>
+      </c>
+      <c r="F157">
+        <v>36.861845866356603</v>
+      </c>
+      <c r="G157">
+        <v>36.840836146181097</v>
+      </c>
+      <c r="H157">
+        <v>36.808948845488302</v>
+      </c>
+      <c r="I157">
+        <v>36.564753751463797</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>25</v>
+      </c>
+      <c r="D158">
+        <v>31.460718026644699</v>
+      </c>
+      <c r="E158">
+        <v>27.5403540939778</v>
+      </c>
+      <c r="F158">
+        <v>32.586892852140302</v>
+      </c>
+      <c r="G158">
+        <v>33.571418659725197</v>
+      </c>
+      <c r="H158">
+        <v>33.801825976576303</v>
+      </c>
+      <c r="I158">
+        <v>31.969246251706</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>32</v>
+      </c>
+      <c r="D159">
+        <v>35.905513271232699</v>
+      </c>
+      <c r="E159">
+        <v>32.100179629432503</v>
+      </c>
+      <c r="F159">
+        <v>36.366542815140498</v>
+      </c>
+      <c r="G159">
+        <v>36.753915959463598</v>
+      </c>
+      <c r="H159">
+        <v>36.594706686569197</v>
+      </c>
+      <c r="I159">
+        <v>36.151240959421798</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>46</v>
+      </c>
+      <c r="D160">
+        <v>30.277501265473202</v>
+      </c>
+      <c r="E160">
+        <v>32.562391837056801</v>
+      </c>
+      <c r="F160">
+        <v>31.1293758937646</v>
+      </c>
+      <c r="G160">
+        <v>31.641905881650601</v>
+      </c>
+      <c r="H160">
+        <v>31.474780285358602</v>
+      </c>
+      <c r="I160">
+        <v>30.6153300077228</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <v>34</v>
+      </c>
+      <c r="D161">
+        <v>39.442160673491998</v>
+      </c>
+      <c r="E161">
+        <v>34.099614172721402</v>
+      </c>
+      <c r="F161">
+        <v>39.068928212196099</v>
+      </c>
+      <c r="G161">
+        <v>38.813083245820302</v>
+      </c>
+      <c r="H161">
+        <v>39.546226278241498</v>
+      </c>
+      <c r="I161">
+        <v>40.029954433809799</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>27</v>
+      </c>
+      <c r="D162">
+        <v>32.288710362603602</v>
+      </c>
+      <c r="E162">
+        <v>27.100290776101499</v>
+      </c>
+      <c r="F162">
+        <v>34.110018998928503</v>
+      </c>
+      <c r="G162">
+        <v>34.761401890372099</v>
+      </c>
+      <c r="H162">
+        <v>34.804400323378701</v>
+      </c>
+      <c r="I162">
+        <v>33.240631249304201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>49</v>
+      </c>
+      <c r="D163">
+        <v>42.703717497007297</v>
+      </c>
+      <c r="E163">
+        <v>48.899828345564899</v>
+      </c>
+      <c r="F163">
+        <v>43.495927031854698</v>
+      </c>
+      <c r="G163">
+        <v>43.677774922387201</v>
+      </c>
+      <c r="H163">
+        <v>43.728241492164699</v>
+      </c>
+      <c r="I163">
+        <v>43.080943297470803</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>26</v>
+      </c>
+      <c r="D164">
+        <v>37.5918703963845</v>
+      </c>
+      <c r="E164">
+        <v>26.633227779566202</v>
+      </c>
+      <c r="F164">
+        <v>36.891552204649003</v>
+      </c>
+      <c r="G164">
+        <v>36.489236556729402</v>
+      </c>
+      <c r="H164">
+        <v>37.138147957438001</v>
+      </c>
+      <c r="I164">
+        <v>37.725679938207897</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>49</v>
+      </c>
+      <c r="D165">
+        <v>62.367386480757403</v>
+      </c>
+      <c r="E165">
+        <v>48.9004285875981</v>
+      </c>
+      <c r="F165">
+        <v>61.348466929093497</v>
+      </c>
+      <c r="G165">
+        <v>60.1634480181445</v>
+      </c>
+      <c r="H165">
+        <v>59.754959145519102</v>
+      </c>
+      <c r="I165">
+        <v>62.4374403298944</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>26</v>
+      </c>
+      <c r="D166">
+        <v>29.254755904923901</v>
+      </c>
+      <c r="E166">
+        <v>26.100272295353601</v>
+      </c>
+      <c r="F166">
+        <v>30.9248979529225</v>
+      </c>
+      <c r="G166">
+        <v>31.841766064349201</v>
+      </c>
+      <c r="H166">
+        <v>31.8224263952082</v>
+      </c>
+      <c r="I166">
+        <v>29.8171072995146</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>49</v>
+      </c>
+      <c r="D167">
+        <v>49.926934440388898</v>
+      </c>
+      <c r="E167">
+        <v>48.9002553797771</v>
+      </c>
+      <c r="F167">
+        <v>49.866403654887797</v>
+      </c>
+      <c r="G167">
+        <v>49.511018265735302</v>
+      </c>
+      <c r="H167">
+        <v>49.113747478890801</v>
+      </c>
+      <c r="I167">
+        <v>50.106266099764703</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>52</v>
+      </c>
+      <c r="D168">
+        <v>44.7316627158568</v>
+      </c>
+      <c r="E168">
+        <v>49.296775054778401</v>
+      </c>
+      <c r="F168">
+        <v>43.733242297064997</v>
+      </c>
+      <c r="G168">
+        <v>43.189942862050003</v>
+      </c>
+      <c r="H168">
+        <v>43.379166260269301</v>
+      </c>
+      <c r="I168">
+        <v>44.652262978333702</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>62</v>
+      </c>
+      <c r="D169">
+        <v>55.364577170314298</v>
+      </c>
+      <c r="E169">
+        <v>56.118206320459898</v>
+      </c>
+      <c r="F169">
+        <v>53.805069997985399</v>
+      </c>
+      <c r="G169">
+        <v>52.548116619678801</v>
+      </c>
+      <c r="H169">
+        <v>52.5040362005996</v>
+      </c>
+      <c r="I169">
+        <v>55.031700053899598</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>28</v>
+      </c>
+      <c r="D170">
+        <v>34.854247985423299</v>
+      </c>
+      <c r="E170">
+        <v>33.600233998715801</v>
+      </c>
+      <c r="F170">
+        <v>36.303877648817902</v>
+      </c>
+      <c r="G170">
+        <v>37.146810134453901</v>
+      </c>
+      <c r="H170">
+        <v>37.050045974104798</v>
+      </c>
+      <c r="I170">
+        <v>35.626442509177899</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>53</v>
+      </c>
+      <c r="D171">
+        <v>32.344173713319798</v>
+      </c>
+      <c r="E171">
+        <v>38.860269382311103</v>
+      </c>
+      <c r="F171">
+        <v>32.961327306548199</v>
+      </c>
+      <c r="G171">
+        <v>33.334420592073101</v>
+      </c>
+      <c r="H171">
+        <v>33.703611282291703</v>
+      </c>
+      <c r="I171">
+        <v>32.919673612237297</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>34</v>
+      </c>
+      <c r="D172">
+        <v>40.946136696057501</v>
+      </c>
+      <c r="E172">
+        <v>35.155879833787097</v>
+      </c>
+      <c r="F172">
+        <v>40.207729964222104</v>
+      </c>
+      <c r="G172">
+        <v>40.210611678200401</v>
+      </c>
+      <c r="H172">
+        <v>39.857150676345</v>
+      </c>
+      <c r="I172">
+        <v>40.085392608248299</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>26</v>
+      </c>
+      <c r="D173">
+        <v>36.646937283207798</v>
+      </c>
+      <c r="E173">
+        <v>41.2329366790919</v>
+      </c>
+      <c r="F173">
+        <v>38.164584030277503</v>
+      </c>
+      <c r="G173">
+        <v>38.635054811887301</v>
+      </c>
+      <c r="H173">
+        <v>38.5267260855465</v>
+      </c>
+      <c r="I173">
+        <v>37.575215334048998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>55</v>
+      </c>
+      <c r="D174">
+        <v>51.958202531842403</v>
+      </c>
+      <c r="E174">
+        <v>51.448932245223403</v>
+      </c>
+      <c r="F174">
+        <v>48.9436594482111</v>
+      </c>
+      <c r="G174">
+        <v>47.492115975585698</v>
+      </c>
+      <c r="H174">
+        <v>47.658447815509902</v>
+      </c>
+      <c r="I174">
+        <v>50.479822992359701</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>22</v>
+      </c>
+      <c r="D175">
+        <v>26.330557445037702</v>
+      </c>
+      <c r="E175">
+        <v>24.113451063625501</v>
+      </c>
+      <c r="F175">
+        <v>27.292388513093702</v>
+      </c>
+      <c r="G175">
+        <v>28.219737791146699</v>
+      </c>
+      <c r="H175">
+        <v>28.5591380573251</v>
+      </c>
+      <c r="I175">
+        <v>26.746545970177198</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>41</v>
+      </c>
+      <c r="D176">
+        <v>37.8072118524479</v>
+      </c>
+      <c r="E176">
+        <v>40.899835838302899</v>
+      </c>
+      <c r="F176">
+        <v>38.258624324038401</v>
+      </c>
+      <c r="G176">
+        <v>38.569208175681197</v>
+      </c>
+      <c r="H176">
+        <v>38.078691227195897</v>
+      </c>
+      <c r="I176">
+        <v>37.4167450391827</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>58</v>
+      </c>
+      <c r="D177">
+        <v>40.407694817300701</v>
+      </c>
+      <c r="E177">
+        <v>46.091822334707402</v>
+      </c>
+      <c r="F177">
+        <v>40.9428845534487</v>
+      </c>
+      <c r="G177">
+        <v>41.077164152196502</v>
+      </c>
+      <c r="H177">
+        <v>40.432880018877903</v>
+      </c>
+      <c r="I177">
+        <v>40.205241647454898</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>44</v>
+      </c>
+      <c r="D178">
+        <v>36.601049846892998</v>
+      </c>
+      <c r="E178">
+        <v>39.022487805558498</v>
+      </c>
+      <c r="F178">
+        <v>37.960391399759402</v>
+      </c>
+      <c r="G178">
+        <v>38.6574711040099</v>
+      </c>
+      <c r="H178">
+        <v>37.782094310652397</v>
+      </c>
+      <c r="I178">
+        <v>36.504867325347298</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>51</v>
+      </c>
+      <c r="D179">
+        <v>51.750566407317997</v>
+      </c>
+      <c r="E179">
+        <v>50.899614645520799</v>
+      </c>
+      <c r="F179">
+        <v>51.258586302321497</v>
+      </c>
+      <c r="G179">
+        <v>50.6380370588153</v>
+      </c>
+      <c r="H179">
+        <v>50.120308629236902</v>
+      </c>
+      <c r="I179">
+        <v>51.647319816519499</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>51</v>
+      </c>
+      <c r="D180">
+        <v>45.390268529400998</v>
+      </c>
+      <c r="E180">
+        <v>50.900183378086801</v>
+      </c>
+      <c r="F180">
+        <v>44.564566581167902</v>
+      </c>
+      <c r="G180">
+        <v>43.9554867591849</v>
+      </c>
+      <c r="H180">
+        <v>44.442092544520598</v>
+      </c>
+      <c r="I180">
+        <v>45.3448003530984</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>24</v>
+      </c>
+      <c r="D181">
+        <v>37.673495246930301</v>
+      </c>
+      <c r="E181">
+        <v>31.0686533980431</v>
+      </c>
+      <c r="F181">
+        <v>37.173932601092197</v>
+      </c>
+      <c r="G181">
+        <v>37.118036180876302</v>
+      </c>
+      <c r="H181">
+        <v>36.950411860202301</v>
+      </c>
+      <c r="I181">
+        <v>37.251335098067997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>50</v>
+      </c>
+      <c r="D182">
+        <v>49.059030709263197</v>
+      </c>
+      <c r="E182">
+        <v>50.100152013156901</v>
+      </c>
+      <c r="F182">
+        <v>48.511125653380901</v>
+      </c>
+      <c r="G182">
+        <v>47.986987779085602</v>
+      </c>
+      <c r="H182">
+        <v>47.925859961415597</v>
+      </c>
+      <c r="I182">
+        <v>48.772587781507397</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>25</v>
+      </c>
+      <c r="D183">
+        <v>30.724452683229899</v>
+      </c>
+      <c r="E183">
+        <v>25.698553817574901</v>
+      </c>
+      <c r="F183">
+        <v>31.6699214562734</v>
+      </c>
+      <c r="G183">
+        <v>32.273642250371502</v>
+      </c>
+      <c r="H183">
+        <v>32.313982273506099</v>
+      </c>
+      <c r="I183">
+        <v>30.980745638650198</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>23</v>
+      </c>
+      <c r="D184">
+        <v>39.188376602422302</v>
+      </c>
+      <c r="E184">
+        <v>35.155176407138903</v>
+      </c>
+      <c r="F184">
+        <v>38.212142321782302</v>
+      </c>
+      <c r="G184">
+        <v>37.8661604622515</v>
+      </c>
+      <c r="H184">
+        <v>37.9232911005031</v>
+      </c>
+      <c r="I184">
+        <v>38.846373619634697</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185">
+        <v>27</v>
+      </c>
+      <c r="D185">
+        <v>35.763795958699902</v>
+      </c>
+      <c r="E185">
+        <v>27.0998447393996</v>
+      </c>
+      <c r="F185">
+        <v>36.250378040435798</v>
+      </c>
+      <c r="G185">
+        <v>36.500964664877003</v>
+      </c>
+      <c r="H185">
+        <v>36.734450078405402</v>
+      </c>
+      <c r="I185">
+        <v>35.932363053671097</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <v>25</v>
+      </c>
+      <c r="D186">
+        <v>35.188201281897399</v>
+      </c>
+      <c r="E186">
+        <v>29.128053828370099</v>
+      </c>
+      <c r="F186">
+        <v>35.729199634674401</v>
+      </c>
+      <c r="G186">
+        <v>35.898817548357897</v>
+      </c>
+      <c r="H186">
+        <v>36.396961456881002</v>
+      </c>
+      <c r="I186">
+        <v>35.769229800539598</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>52</v>
+      </c>
+      <c r="D187">
+        <v>44.9049675921842</v>
+      </c>
+      <c r="E187">
+        <v>50.156000960698996</v>
+      </c>
+      <c r="F187">
+        <v>43.956292848706902</v>
+      </c>
+      <c r="G187">
+        <v>43.256657482863901</v>
+      </c>
+      <c r="H187">
+        <v>43.5358614706103</v>
+      </c>
+      <c r="I187">
+        <v>44.679843685329097</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>40</v>
+      </c>
+      <c r="D188">
+        <v>37.082592050117803</v>
+      </c>
+      <c r="E188">
+        <v>39.630945726771102</v>
+      </c>
+      <c r="F188">
+        <v>36.749470151838104</v>
+      </c>
+      <c r="G188">
+        <v>36.612084128468901</v>
+      </c>
+      <c r="H188">
+        <v>36.779295092658501</v>
+      </c>
+      <c r="I188">
+        <v>37.260167952967599</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>43</v>
+      </c>
+      <c r="D189">
+        <v>40.754755021162602</v>
+      </c>
+      <c r="E189">
+        <v>42.899947673638799</v>
+      </c>
+      <c r="F189">
+        <v>39.4972953873271</v>
+      </c>
+      <c r="G189">
+        <v>39.298986206983699</v>
+      </c>
+      <c r="H189">
+        <v>39.198702560262099</v>
+      </c>
+      <c r="I189">
+        <v>40.285429729684999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>54</v>
+      </c>
+      <c r="D190">
+        <v>43.301376380737501</v>
+      </c>
+      <c r="E190">
+        <v>47.316024379895197</v>
+      </c>
+      <c r="F190">
+        <v>43.681748028394701</v>
+      </c>
+      <c r="G190">
+        <v>43.788716548675801</v>
+      </c>
+      <c r="H190">
+        <v>43.6655816959899</v>
+      </c>
+      <c r="I190">
+        <v>43.918746488767297</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>28</v>
+      </c>
+      <c r="D191">
+        <v>37.204686893877103</v>
+      </c>
+      <c r="E191">
+        <v>33.701532797951401</v>
+      </c>
+      <c r="F191">
+        <v>37.294661766917002</v>
+      </c>
+      <c r="G191">
+        <v>37.335893917994802</v>
+      </c>
+      <c r="H191">
+        <v>37.482423821242598</v>
+      </c>
+      <c r="I191">
+        <v>37.448349254385199</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>53</v>
+      </c>
+      <c r="D192">
+        <v>53.908743020638603</v>
+      </c>
+      <c r="E192">
+        <v>52.900392464433999</v>
+      </c>
+      <c r="F192">
+        <v>52.7516605936082</v>
+      </c>
+      <c r="G192">
+        <v>51.948334536099502</v>
+      </c>
+      <c r="H192">
+        <v>52.015695637893799</v>
+      </c>
+      <c r="I192">
+        <v>53.206964100402097</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>48</v>
+      </c>
+      <c r="D193">
+        <v>48.174734504867601</v>
+      </c>
+      <c r="E193">
+        <v>50.858381246087397</v>
+      </c>
+      <c r="F193">
+        <v>46.809584858998697</v>
+      </c>
+      <c r="G193">
+        <v>45.988802072278403</v>
+      </c>
+      <c r="H193">
+        <v>46.225247423676201</v>
+      </c>
+      <c r="I193">
+        <v>47.829860781376702</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>45</v>
+      </c>
+      <c r="D194">
+        <v>40.934974865284403</v>
+      </c>
+      <c r="E194">
+        <v>44.8999336434509</v>
+      </c>
+      <c r="F194">
+        <v>41.809424529801397</v>
+      </c>
+      <c r="G194">
+        <v>41.931163806792597</v>
+      </c>
+      <c r="H194">
+        <v>41.920549899321301</v>
+      </c>
+      <c r="I194">
+        <v>41.440032135403698</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>21</v>
+      </c>
+      <c r="D195">
+        <v>27.450433531399501</v>
+      </c>
+      <c r="E195">
+        <v>29.398292559928599</v>
+      </c>
+      <c r="F195">
+        <v>29.373013900585399</v>
+      </c>
+      <c r="G195">
+        <v>30.509065559946698</v>
+      </c>
+      <c r="H195">
+        <v>29.968911223085399</v>
+      </c>
+      <c r="I195">
+        <v>27.853798102804401</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>27</v>
+      </c>
+      <c r="D196">
+        <v>32.122535873373799</v>
+      </c>
+      <c r="E196">
+        <v>28.0996085309968</v>
+      </c>
+      <c r="F196">
+        <v>32.584984206132198</v>
+      </c>
+      <c r="G196">
+        <v>32.918961409151201</v>
+      </c>
+      <c r="H196">
+        <v>33.001036553563402</v>
+      </c>
+      <c r="I196">
+        <v>32.3897987155799</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
+      <c r="C197">
+        <v>55</v>
+      </c>
+      <c r="D197">
+        <v>54.613585304817299</v>
+      </c>
+      <c r="E197">
+        <v>53.486759032448802</v>
+      </c>
+      <c r="F197">
+        <v>52.792481912083801</v>
+      </c>
+      <c r="G197">
+        <v>51.541988410481899</v>
+      </c>
+      <c r="H197">
+        <v>51.676697245496698</v>
+      </c>
+      <c r="I197">
+        <v>53.749200899460199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>33</v>
+      </c>
+      <c r="D198">
+        <v>40.1636941950782</v>
+      </c>
+      <c r="E198">
+        <v>36.250008989584501</v>
+      </c>
+      <c r="F198">
+        <v>40.208746555006798</v>
+      </c>
+      <c r="G198">
+        <v>40.049419983984599</v>
+      </c>
+      <c r="H198">
+        <v>40.0112443342381</v>
+      </c>
+      <c r="I198">
+        <v>40.485699766405297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>